--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,9 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="3">
   <si>
     <t>Home</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BB</t>
   </si>
 </sst>
 </file>
@@ -353,7 +359,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C1" sqref="C1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -363,10 +369,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -374,10 +380,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -385,10 +391,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -396,10 +402,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -407,10 +413,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -418,10 +424,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -429,10 +435,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -440,10 +446,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -451,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -462,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -473,10 +479,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -484,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="3">
   <si>
     <t>Home</t>
   </si>
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -493,6 +493,138 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>2</v>
       </c>
     </row>
